--- a/report/experiment.xlsx
+++ b/report/experiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislav/Documents/GitHub/Other/algos/lab1/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CBDD19-54F8-EF4E-8B41-290BA471C90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7439A1CF-D461-034C-9767-3F6D607AC869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{20739A5D-993A-C049-A453-0AB316B1035E}"/>
   </bookViews>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Теория</t>
+    <t>Количество операций</t>
   </si>
   <si>
-    <t>Практика</t>
-  </si>
-  <si>
-    <t>Количество операций</t>
+    <t>Проведенный эксперимент</t>
   </si>
 </sst>
 </file>
@@ -131,7 +128,7 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -139,94 +136,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Теория</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$B$2:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-93AA-4C49-AEBD-5920078E232B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Практика</c:v>
+                  <c:v>Проведенный эксперимент</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -272,7 +182,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$7</c:f>
+              <c:f>Лист1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1580,96 +1490,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60227451-09CA-4A4A-92E5-3515929FAFB2}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="168" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="11" max="11" width="18.1640625" customWidth="1"/>
     <col min="12" max="12" width="17.5" customWidth="1"/>
     <col min="13" max="13" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>5000</v>
-      </c>
-      <c r="C3">
         <v>4969</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4000</v>
       </c>
       <c r="B4">
-        <v>10000</v>
-      </c>
-      <c r="C4">
         <v>10730</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6000</v>
       </c>
       <c r="B5">
-        <v>15000</v>
-      </c>
-      <c r="C5">
         <v>16722</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8000</v>
       </c>
       <c r="B6">
-        <v>20000</v>
-      </c>
-      <c r="C6">
         <v>22909</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10000</v>
       </c>
       <c r="B7">
-        <v>25000</v>
-      </c>
-      <c r="C7">
         <v>29473</v>
       </c>
     </row>
